--- a/第二次迭代/第二次迭代当前完成的文档/项目开发计划1.02.xlsx
+++ b/第二次迭代/第二次迭代当前完成的文档/项目开发计划1.02.xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="总体目录" sheetId="3" r:id="rId2"/>
+    <sheet name="开发计划表" sheetId="3" r:id="rId2"/>
+    <sheet name="跟踪信息表" sheetId="4" r:id="rId3"/>
+    <sheet name="配置管理计划" sheetId="5" r:id="rId4"/>
+    <sheet name="系统测试计划" sheetId="6" r:id="rId5"/>
+    <sheet name="测试用例" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="109">
   <si>
     <t>注册登陆</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,6 +378,130 @@
   </si>
   <si>
     <t>张晓+黄俊萌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+  </si>
+  <si>
+    <t>服务器型号</t>
+  </si>
+  <si>
+    <t>必要的硬件配置</t>
+  </si>
+  <si>
+    <r>
+      <t>必要的软件配置</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>申报理由说明</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>智能手机</t>
+  </si>
+  <si>
+    <r>
+      <t>安卓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>及以上版本</t>
+    </r>
+  </si>
+  <si>
+    <t>此配置是所开发的软件系统要求的最基本配置，并且满足客户对系统性能的要求。</t>
+  </si>
+  <si>
+    <t>开发前端</t>
+  </si>
+  <si>
+    <t>Thinkpad w530</t>
+  </si>
+  <si>
+    <t>2.9GHzCPU</t>
+  </si>
+  <si>
+    <t>Win10,</t>
+  </si>
+  <si>
+    <t>Android Studio</t>
+  </si>
+  <si>
+    <t>满足最基本的开发要求。</t>
+  </si>
+  <si>
+    <r>
+      <t>1）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客户运行环境所需关键计算机资源</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）项目开发环境所需关键计算机资源：</t>
+    </r>
+  </si>
+  <si>
+    <t>成员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +509,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,8 +566,48 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,8 +634,20 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -490,6 +670,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -506,7 +802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -525,6 +821,58 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1297,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1979,4 +2327,215 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="128.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="19">
+        <v>1</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="24">
+        <v>1</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="22"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/第二次迭代/第二次迭代当前完成的文档/项目开发计划1.02.xlsx
+++ b/第二次迭代/第二次迭代当前完成的文档/项目开发计划1.02.xlsx
@@ -4,22 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="开发计划表" sheetId="3" r:id="rId2"/>
-    <sheet name="跟踪信息表" sheetId="4" r:id="rId3"/>
-    <sheet name="配置管理计划" sheetId="5" r:id="rId4"/>
-    <sheet name="系统测试计划" sheetId="6" r:id="rId5"/>
-    <sheet name="测试用例" sheetId="8" r:id="rId6"/>
+    <sheet name="总体目录" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="110">
   <si>
     <t>注册登陆</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,247 +257,203 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>数据库存储试验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像切割试验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼图试验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素描试验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面试验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.23-11.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.13-11.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.27-12.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.11-12.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.20-12.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.30-10.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.15-10.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程志豪+黄俊萌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄俊萌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分原型图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目开发计划表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程志豪+李梦宇+张晓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程志豪+黄俊萌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李梦宇+程志豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程志豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦赫城+程志豪+黄俊萌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发实施-原型（按模块）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张晓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李梦宇+张晓+黄俊萌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张晓+黄俊萌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发计划过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目定义（简介）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理图片本地存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理图片上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取待处理图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取手机存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像头拍摄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选取背景底色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片主体选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片主体分离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滤镜加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片合成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史已处理图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块拼接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>试验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>相册取图，照相试验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>图片变形试验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库存储试验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相册取图，照相试验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图像切割试验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拼图试验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素描试验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面试验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.23-11.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.13-11.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.27-12.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.11-12.19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.20-12.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09.30-10.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.15-10.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程志豪+黄俊萌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄俊萌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部分原型图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目开发计划表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程志豪+李梦宇+张晓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>责任分配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块拼接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程志豪+黄俊萌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李梦宇+程志豪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程志豪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韦赫城+程志豪+黄俊萌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发实施-原型（按模块）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张晓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李梦宇+张晓+黄俊萌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张晓+黄俊萌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用途</t>
-  </si>
-  <si>
-    <t>服务器型号</t>
-  </si>
-  <si>
-    <t>必要的硬件配置</t>
-  </si>
-  <si>
-    <r>
-      <t>必要的软件配置</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>申报理由说明</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>智能手机</t>
-  </si>
-  <si>
-    <r>
-      <t>安卓</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>及以上版本</t>
-    </r>
-  </si>
-  <si>
-    <t>此配置是所开发的软件系统要求的最基本配置，并且满足客户对系统性能的要求。</t>
-  </si>
-  <si>
-    <t>开发前端</t>
-  </si>
-  <si>
-    <t>Thinkpad w530</t>
-  </si>
-  <si>
-    <t>2.9GHzCPU</t>
-  </si>
-  <si>
-    <t>Win10,</t>
-  </si>
-  <si>
-    <t>Android Studio</t>
-  </si>
-  <si>
-    <t>满足最基本的开发要求。</t>
-  </si>
-  <si>
-    <r>
-      <t>1）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>客户运行环境所需关键计算机资源</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）项目开发环境所需关键计算机资源：</t>
-    </r>
-  </si>
-  <si>
-    <t>成员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +461,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,48 +518,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -634,20 +546,8 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -670,122 +570,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -802,7 +586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -821,58 +605,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1643,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:M2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1661,7 +1393,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1684,31 +1416,31 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="J2" t="s">
         <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s">
         <v>31</v>
@@ -1732,18 +1464,20 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+        <v>86</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
       <c r="K4" t="s">
         <v>49</v>
       </c>
@@ -1753,31 +1487,31 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
       <c r="K5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
       <c r="K6" t="s">
         <v>49</v>
       </c>
@@ -1787,32 +1521,31 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
       <c r="K7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
       <c r="K8" t="s">
         <v>49</v>
       </c>
@@ -1822,33 +1555,33 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
       <c r="K9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>58</v>
-      </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
       <c r="K10" t="s">
         <v>49</v>
       </c>
@@ -1858,83 +1591,75 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
       <c r="K11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="5"/>
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="K12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="K13" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" t="s">
-        <v>20</v>
-      </c>
+      <c r="A14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="6"/>
@@ -1942,381 +1667,426 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" t="s">
-        <v>4</v>
-      </c>
       <c r="K15" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
+        <v>89</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+        <v>90</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="10"/>
+        <v>91</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L18" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+        <v>92</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K19" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="L19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" t="s">
         <v>4</v>
       </c>
       <c r="K20" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="L20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>8.01</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>8.02</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="L22" t="s">
-        <v>22</v>
+        <v>95</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>8.0299999999999994</v>
+        <v>8.01</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="L23" t="s">
-        <v>39</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>9</v>
+        <v>8.02</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="J24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" t="s">
-        <v>88</v>
+        <v>97</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="L24" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>9.01</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="L25" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>9.02</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="J26" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>9.0299999999999994</v>
+        <v>9.01</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>9.0399999999999991</v>
+        <v>9.02</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>10</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" t="s">
-        <v>85</v>
-      </c>
-      <c r="L29" t="s">
-        <v>40</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>11</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="J30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K30" t="s">
-        <v>84</v>
-      </c>
-      <c r="L30" t="s">
-        <v>27</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="K31" t="s">
-        <v>49</v>
+      <c r="L31" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
       <c r="J32" t="s">
-        <v>57</v>
+        <v>4</v>
+      </c>
+      <c r="K32" t="s">
+        <v>80</v>
+      </c>
+      <c r="L32" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>13.01</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
       <c r="K33" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>13.02</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="K34" t="s">
-        <v>89</v>
+        <v>107</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>13.03</v>
+        <v>13.01</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
       <c r="K35" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>13.04</v>
+        <v>13.02</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="C36" s="1"/>
       <c r="K36" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>13.05</v>
+        <v>13.03</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="K37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>13.06</v>
+        <v>13.04</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="K38" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39">
+        <v>13.05</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="K39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>13.06</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="K40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41">
         <v>13.07</v>
       </c>
-      <c r="B39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="K39" t="s">
-        <v>83</v>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="K41" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2327,215 +2097,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="3" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="128.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="19">
-        <v>1</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="24">
-        <v>1</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>